--- a/data/game delay.xlsx
+++ b/data/game delay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianvarallyay/Desktop/Grad School/QMSS Folders/Data Visualization/Gaming changes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308E3222-0D88-4541-B987-1E603A9A1AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B30F7B-4D55-444F-AEE2-C062F3BE9A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="600" windowWidth="34820" windowHeight="20740" activeTab="1" xr2:uid="{FD285A9F-72B9-5B4E-9E16-ED682CA9667B}"/>
+    <workbookView xWindow="180" yWindow="500" windowWidth="34820" windowHeight="20740" activeTab="1" xr2:uid="{FD285A9F-72B9-5B4E-9E16-ED682CA9667B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="350">
   <si>
     <t>Outriders</t>
   </si>
@@ -991,102 +991,18 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t>46.01B</t>
-  </si>
-  <si>
-    <t>685.48M</t>
-  </si>
-  <si>
-    <t>40.54B</t>
-  </si>
-  <si>
-    <t>191.12M</t>
-  </si>
-  <si>
-    <t>22.09B</t>
-  </si>
-  <si>
-    <t>75.62M</t>
-  </si>
-  <si>
-    <t>7.55B</t>
-  </si>
-  <si>
-    <t>33.01M</t>
-  </si>
-  <si>
-    <t>5.87B</t>
-  </si>
-  <si>
-    <t>46.12M</t>
-  </si>
-  <si>
-    <t>5.31B</t>
-  </si>
-  <si>
-    <t>37.66M</t>
-  </si>
-  <si>
-    <t>4.13B</t>
-  </si>
-  <si>
-    <t>38.08M</t>
-  </si>
-  <si>
-    <t>3.69B</t>
-  </si>
-  <si>
-    <t>20.98M</t>
-  </si>
-  <si>
-    <t>3.29B</t>
-  </si>
-  <si>
-    <t>36.55M</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
-    <t>2.33B</t>
-  </si>
-  <si>
-    <t>29.73M</t>
-  </si>
-  <si>
     <t>Rank 2020</t>
   </si>
   <si>
     <t>Rank 2021</t>
   </si>
   <si>
-    <t>Country 2020</t>
-  </si>
-  <si>
-    <t>Country 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revenue  2021 (USD Billions) </t>
-  </si>
-  <si>
-    <t>Revenue  2020  (USD Billions)</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Exports % change between 2019 and 2020</t>
   </si>
   <si>
-    <t>Video Game Exports (USD) 2020 *excluding video games requiring user payment to play</t>
-  </si>
-  <si>
-    <t>Number of active video gamers worldwide 2021 (billions)</t>
-  </si>
-  <si>
-    <t>Number of active video gamers worldwide 2020 (billions)</t>
-  </si>
-  <si>
     <t>% internet users who play video games on any device (as of 3rd quarter) 2021</t>
   </si>
   <si>
@@ -1099,37 +1015,88 @@
     <t>Number of online gamers 2020 (Millions)</t>
   </si>
   <si>
-    <t>Genre Popularity by share of respondants: Casual single player games (eg, Candy Crush or Clash of Clans)</t>
-  </si>
-  <si>
-    <t>Genre Popularity by share of respondants:  Casual multiplayer games (eg, Words with Friends)</t>
-  </si>
-  <si>
-    <t>Genre Popularity by share of respondants: First-person shooter games (eg, Call of Duty)</t>
-  </si>
-  <si>
-    <t>Genre Popularity by share of respondants:  Single player role-playing games (eg, Elder Scrolls)</t>
-  </si>
-  <si>
-    <t>Genre Popularity by share of respondants:  Multiplayer online battle arena games  (eg, LoL or Dota 2)</t>
-  </si>
-  <si>
-    <t>Genre Popularity by share of respondants: MMORPG (eg, WoW)</t>
-  </si>
-  <si>
-    <t>Genre Popularity by share of respondants:  Battle royale games (eg, Fortnite and PUBG)</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Covid Impact</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Unsure</t>
+  </si>
+  <si>
+    <t>The Outer Worlds - NS</t>
+  </si>
+  <si>
+    <t>Death Stranding - PC</t>
+  </si>
+  <si>
+    <t>Sniper Ghost Warrior Contracts 2 - PS5</t>
+  </si>
+  <si>
+    <t>GTA: The Trilogy – The Definitive Edition - Physical Release</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto 5 - Next-Gen Release</t>
+  </si>
+  <si>
+    <t>Genre Popularity by share of respondants: Casual single player games (eg, Candy Crush or Clash of Clans)  2021</t>
+  </si>
+  <si>
+    <t>Genre Popularity by share of respondants:  Casual multiplayer games (eg, Words with Friends)  2021</t>
+  </si>
+  <si>
+    <t>Genre Popularity by share of respondants: First-person shooter games (eg, Call of Duty)  2021</t>
+  </si>
+  <si>
+    <t>Genre Popularity by share of respondants:  Single player role-playing games (eg, Elder Scrolls)  2021</t>
+  </si>
+  <si>
+    <t>Genre Popularity by share of respondants:  Multiplayer online battle arena games  (eg, LoL or Dota 2)  2021</t>
+  </si>
+  <si>
+    <t>Genre Popularity by share of respondants: MMORPG (eg, WoW)  2021</t>
+  </si>
+  <si>
+    <t>Genre Popularity by share of respondants:  Battle royale games (eg, Fortnite and PUBG)  2021</t>
+  </si>
+  <si>
+    <t>Video Game Exports (USD Billions) 2020 *excluding video games requiring user payment to play</t>
+  </si>
+  <si>
+    <t>Number of active video gamers worldwide 2020 (Billions)</t>
+  </si>
+  <si>
+    <t>Number of active video gamers worldwide 2021 (Billions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude </t>
+  </si>
+  <si>
+    <t xml:space="preserve">latitude </t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Revenue  2021</t>
+  </si>
+  <si>
+    <t>Revenue  2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1179,7 +1146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1216,6 +1183,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1229,7 +1202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1303,17 +1276,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1630,17 +1618,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440208A2-4103-7144-828F-EB30C451AE8E}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.1640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="21.1640625" style="2"/>
     <col min="4" max="5" width="21.1640625" style="16"/>
-    <col min="6" max="16384" width="21.1640625" style="2"/>
+    <col min="6" max="7" width="21.1640625" style="2"/>
+    <col min="8" max="8" width="21.1640625" style="29"/>
+    <col min="9" max="16384" width="21.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="38" customHeight="1" x14ac:dyDescent="0.2">
@@ -1648,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>113</v>
+        <v>326</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -1665,7 +1656,7 @@
       <c r="G1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="26" t="s">
         <v>160</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -1678,7 +1669,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>157</v>
+        <v>325</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>158</v>
@@ -1697,35 +1688,35 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="C2" s="7">
-        <v>44040</v>
+        <v>43721</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="7">
-        <v>44075</v>
+        <v>43749</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="27"/>
       <c r="I2" s="11">
-        <f t="shared" ref="I2:I33" si="0">F:F-C:C</f>
-        <v>35</v>
+        <f t="shared" ref="I2:I28" si="0">F:F-C:C</f>
+        <v>28</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="6" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -1742,35 +1733,39 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>44315</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+        <v>137</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="21">
+        <v>43100</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" s="15">
+        <v>43704</v>
+      </c>
       <c r="F3" s="7">
-        <v>44329</v>
+        <v>43788</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="11">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>688</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="6" t="s">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>177</v>
+        <v>265</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -1787,125 +1782,135 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="7">
-        <v>44369</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="7">
-        <v>44481</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6"/>
+    <row r="4" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="21">
+        <v>43799</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18">
+        <v>43910</v>
+      </c>
+      <c r="G4" s="17">
+        <v>1</v>
+      </c>
+      <c r="H4" s="28">
+        <v>44376</v>
+      </c>
       <c r="I4" s="11">
         <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="L4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="11">
+        <f>H:H-C:C</f>
+        <v>577</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-    </row>
-    <row r="5" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+    </row>
+    <row r="5" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="18">
+        <v>43893</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18">
+        <v>43931</v>
+      </c>
+      <c r="G5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
-        <v>44491</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="7">
-        <v>44519</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="28">
+        <v>44546</v>
+      </c>
       <c r="I5" s="11">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-    </row>
-    <row r="6" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="J5" s="11">
+        <f>H:H-C:C</f>
+        <v>653</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+    </row>
+    <row r="6" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="C6" s="7">
-        <v>44273</v>
+        <v>43935</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="7">
-        <v>44294</v>
+        <v>43956</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="11">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="6" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>183</v>
+        <v>278</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -1922,35 +1927,35 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>43984</v>
+        <v>91</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C7" s="21">
+        <v>43951</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="7">
-        <v>44026</v>
+        <v>43977</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="11">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="6" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -1969,30 +1974,30 @@
     </row>
     <row r="8" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0</v>
+        <v>330</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="C8" s="7">
-        <v>44582</v>
+        <v>43896</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="7">
-        <v>44617</v>
+        <v>43987</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="11">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="6" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>177</v>
@@ -2012,35 +2017,37 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="20">
-        <v>43982</v>
-      </c>
-      <c r="D9" s="14"/>
+        <v>104</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="7">
+        <v>43882</v>
+      </c>
+      <c r="D9" s="15">
+        <v>43980</v>
+      </c>
       <c r="E9" s="14"/>
       <c r="F9" s="7">
-        <v>44314</v>
+        <v>44001</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="11">
         <f t="shared" si="0"/>
-        <v>332</v>
+        <v>119</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="6" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -2057,80 +2064,87 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" s="6">
+    <row r="10" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C10" s="18">
+        <v>43963</v>
+      </c>
+      <c r="D10" s="18">
+        <v>43977</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18">
+        <v>44005</v>
+      </c>
+      <c r="G10" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="7">
-        <v>44245</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="7">
-        <v>44476</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="28">
+        <v>44131</v>
+      </c>
       <c r="I10" s="11">
         <f t="shared" si="0"/>
-        <v>231</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-    </row>
-    <row r="11" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="J10" s="11">
+        <f>H:H-C:C</f>
+        <v>168</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+    </row>
+    <row r="11" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="20">
-        <v>43982</v>
+        <v>95</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C11" s="7">
+        <v>43970</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="7">
-        <v>44050</v>
+        <v>44012</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="11">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="6" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>197</v>
+        <v>300</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -2147,35 +2161,35 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="C12" s="7">
-        <v>44523</v>
+        <v>43956</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="7">
-        <v>44537</v>
+        <v>44013</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="11">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="6" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -2192,35 +2206,35 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
     </row>
-    <row r="13" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="20">
-        <v>44500</v>
+        <v>94</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C13" s="7">
+        <v>43889</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="7">
-        <v>44645</v>
+        <v>44015</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="11">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="6" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2239,33 +2253,33 @@
     </row>
     <row r="14" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>162</v>
+        <v>331</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="C14" s="7">
-        <v>44511</v>
+        <v>43984</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="7">
-        <v>44635</v>
+        <v>44026</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="11">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="6" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -2282,80 +2296,85 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
     </row>
-    <row r="15" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>43721</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="7">
-        <v>43749</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6"/>
+    <row r="15" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C15" s="18">
+        <v>44008</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18">
+        <v>44029</v>
+      </c>
+      <c r="G15" s="17">
+        <v>1</v>
+      </c>
+      <c r="H15" s="28">
+        <v>44428</v>
+      </c>
       <c r="I15" s="11">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-    </row>
-    <row r="16" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="J15" s="11">
+        <f>H:H-C:C</f>
+        <v>420</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+    </row>
+    <row r="16" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0</v>
+        <v>106</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="C16" s="7">
-        <v>44308</v>
+        <v>43984</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="7">
-        <v>44425</v>
+        <v>44033</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="11">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="6" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -2372,131 +2391,138 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
     </row>
-    <row r="17" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="7">
-        <v>44420</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="7">
-        <v>44534</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6"/>
+    <row r="17" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C17" s="18">
+        <v>43937</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18">
+        <v>44042</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="28">
+        <v>44252</v>
+      </c>
       <c r="I17" s="11">
         <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-    </row>
-    <row r="18" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="6">
-        <v>0</v>
-      </c>
-      <c r="C18" s="7">
-        <v>43887</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="7">
-        <v>44168</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6"/>
+        <v>105</v>
+      </c>
+      <c r="J17" s="11">
+        <f>H:H-C:C</f>
+        <v>315</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+    </row>
+    <row r="18" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C18" s="18">
+        <v>44047</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="10">
+        <v>2022</v>
+      </c>
+      <c r="F18" s="18">
+        <v>44047</v>
+      </c>
+      <c r="G18" s="17">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28">
+        <v>2022</v>
+      </c>
       <c r="I18" s="11">
         <f t="shared" si="0"/>
-        <v>281</v>
-      </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-    </row>
-    <row r="19" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+    </row>
+    <row r="19" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7">
-        <v>44124</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="10">
-        <v>2022</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C19" s="20">
+        <v>43982</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="7">
-        <v>44656</v>
+        <v>44050</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="11">
         <f t="shared" si="0"/>
-        <v>532</v>
+        <v>68</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="6" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -2513,32 +2539,32 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="6">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="C20" s="7">
-        <v>44071</v>
+        <v>44012</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="7">
-        <v>44099</v>
+        <v>44068</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
       </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="27"/>
       <c r="I20" s="11">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="6" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>176</v>
@@ -2558,35 +2584,35 @@
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
     </row>
-    <row r="21" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="6">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="C21" s="7">
-        <v>43889</v>
+        <v>44040</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="7">
-        <v>44015</v>
+        <v>44075</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="27"/>
       <c r="I21" s="11">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -2603,82 +2629,85 @@
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
     </row>
-    <row r="22" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="6">
+    <row r="22" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C22" s="18">
+        <v>43966</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18">
+        <v>44078</v>
+      </c>
+      <c r="G22" s="17">
         <v>1</v>
       </c>
-      <c r="C22" s="21">
-        <v>43951</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="7">
-        <v>43977</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="28">
+        <v>44273</v>
+      </c>
       <c r="I22" s="11">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-    </row>
-    <row r="23" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="J22" s="11">
+        <f>H:H-C:C</f>
+        <v>307</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+    </row>
+    <row r="23" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>162</v>
+        <v>111</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="C23" s="7">
-        <v>43973</v>
-      </c>
-      <c r="D23" s="15">
-        <v>44099</v>
-      </c>
+        <v>44071</v>
+      </c>
+      <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="7">
-        <v>44127</v>
+        <v>44099</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
       </c>
-      <c r="H23" s="6"/>
+      <c r="H23" s="27"/>
       <c r="I23" s="11">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="6" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -2695,39 +2724,37 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
     </row>
-    <row r="24" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="6">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>329</v>
       </c>
       <c r="C24" s="7">
-        <v>44068</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="15">
-        <v>44439</v>
-      </c>
+        <v>43973</v>
+      </c>
+      <c r="D24" s="15">
+        <v>44099</v>
+      </c>
+      <c r="E24" s="14"/>
       <c r="F24" s="7">
-        <v>44467</v>
+        <v>44127</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
       </c>
-      <c r="H24" s="6"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="11">
         <f t="shared" si="0"/>
-        <v>399</v>
+        <v>154</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>284</v>
+        <v>194</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
@@ -2744,80 +2771,85 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
     </row>
-    <row r="25" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="6">
+    <row r="25" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C25" s="18">
+        <v>43896</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18">
+        <v>44133</v>
+      </c>
+      <c r="G25" s="17">
         <v>1</v>
       </c>
-      <c r="C25" s="7">
-        <v>44012</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="7">
-        <v>44068</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6"/>
+      <c r="H25" s="28">
+        <v>44147</v>
+      </c>
       <c r="I25" s="11">
         <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="L25" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" s="11">
+        <f>H:H-C:C</f>
+        <v>251</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-    </row>
-    <row r="26" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+    </row>
+    <row r="26" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="6">
-        <v>1</v>
-      </c>
-      <c r="C26" s="20">
+        <v>122</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" s="21">
         <v>44012</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="7">
-        <v>44168</v>
+        <v>44140</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
       </c>
-      <c r="H26" s="6"/>
+      <c r="H26" s="27"/>
       <c r="I26" s="11">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="6" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -2834,39 +2866,35 @@
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
     </row>
-    <row r="27" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" s="6">
-        <v>1</v>
-      </c>
-      <c r="C27" s="21">
-        <v>43889</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="10">
-        <v>2022</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C27" s="7">
+        <v>43887</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="7">
-        <v>44581</v>
+        <v>44168</v>
       </c>
       <c r="G27" s="6">
         <v>0</v>
       </c>
-      <c r="H27" s="6"/>
+      <c r="H27" s="27"/>
       <c r="I27" s="11">
         <f t="shared" si="0"/>
-        <v>692</v>
+        <v>281</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -2883,35 +2911,35 @@
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
     </row>
-    <row r="28" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" s="7">
-        <v>44274</v>
+        <v>108</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C28" s="20">
+        <v>44012</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="7">
-        <v>44316</v>
+        <v>44168</v>
       </c>
       <c r="G28" s="6">
         <v>0</v>
       </c>
-      <c r="H28" s="6"/>
+      <c r="H28" s="27"/>
       <c r="I28" s="11">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="6" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
@@ -2928,82 +2956,86 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
     </row>
-    <row r="29" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="6">
-        <v>0</v>
-      </c>
-      <c r="C29" s="7">
-        <v>44252</v>
-      </c>
-      <c r="D29" s="15">
-        <v>44441</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="7">
-        <v>44497</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6"/>
+    <row r="29" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C29" s="18">
+        <v>44540</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18">
+        <v>44224</v>
+      </c>
+      <c r="G29" s="17">
+        <v>1</v>
+      </c>
+      <c r="H29" s="28">
+        <v>44612</v>
+      </c>
       <c r="I29" s="11">
-        <f t="shared" si="0"/>
-        <v>245</v>
-      </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-    </row>
-    <row r="30" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="J29" s="11">
+        <f>H:H-C:C</f>
+        <v>72</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+    </row>
+    <row r="30" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="6">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="C30" s="7">
-        <v>43984</v>
-      </c>
-      <c r="D30" s="14"/>
+        <v>44103</v>
+      </c>
+      <c r="D30" s="15">
+        <v>44222</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="7">
-        <v>44033</v>
+        <v>44264</v>
       </c>
       <c r="G30" s="6">
         <v>0</v>
       </c>
-      <c r="H30" s="6"/>
+      <c r="H30" s="27"/>
       <c r="I30" s="11">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <f t="shared" ref="I30:I55" si="1">F:F-C:C</f>
+        <v>161</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="6" t="s">
-        <v>175</v>
+        <v>285</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -3020,35 +3052,35 @@
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
     </row>
-    <row r="31" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="6">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="C31" s="7">
-        <v>44617</v>
+        <v>44273</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="7">
-        <v>44796</v>
+        <v>44294</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
       </c>
-      <c r="H31" s="6"/>
+      <c r="H31" s="27"/>
       <c r="I31" s="11">
-        <f t="shared" si="0"/>
-        <v>179</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="6" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -3065,35 +3097,35 @@
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
     </row>
-    <row r="32" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" s="6">
-        <v>1</v>
-      </c>
-      <c r="C32" s="21">
-        <v>44012</v>
+        <v>124</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C32" s="20">
+        <v>43982</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="7">
-        <v>44140</v>
+        <v>44314</v>
       </c>
       <c r="G32" s="6">
         <v>0</v>
       </c>
-      <c r="H32" s="6"/>
+      <c r="H32" s="27"/>
       <c r="I32" s="11">
-        <f t="shared" si="0"/>
-        <v>128</v>
+        <f t="shared" si="1"/>
+        <v>332</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="6" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
@@ -3110,39 +3142,35 @@
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
     </row>
-    <row r="33" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" s="6">
-        <v>0</v>
-      </c>
-      <c r="C33" s="21">
-        <v>43100</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="E33" s="15">
-        <v>43704</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C33" s="7">
+        <v>44274</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="7">
-        <v>43788</v>
+        <v>44316</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
       </c>
-      <c r="H33" s="6"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="11">
-        <f t="shared" si="0"/>
-        <v>688</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="6" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
@@ -3159,35 +3187,35 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
     </row>
-    <row r="34" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="6">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="C34" s="7">
-        <v>44351</v>
+        <v>44315</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="7">
-        <v>44432</v>
+        <v>44329</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
       </c>
-      <c r="H34" s="6"/>
+      <c r="H34" s="27"/>
       <c r="I34" s="11">
-        <f t="shared" ref="I34:I53" si="1">F:F-C:C</f>
-        <v>81</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="6" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>273</v>
+        <v>177</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
@@ -3204,35 +3232,35 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
     </row>
-    <row r="35" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>162</v>
+        <v>32</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="C35" s="7">
-        <v>44539</v>
+        <v>44308</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="7">
-        <v>44614</v>
+        <v>44425</v>
       </c>
       <c r="G35" s="6">
         <v>0</v>
       </c>
-      <c r="H35" s="6"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="11">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="6" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
@@ -3251,33 +3279,33 @@
     </row>
     <row r="36" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="6">
-        <v>1</v>
+        <v>332</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="C36" s="7">
-        <v>44495</v>
+        <v>44351</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="7">
-        <v>44532</v>
+        <v>44432</v>
       </c>
       <c r="G36" s="6">
         <v>0</v>
       </c>
-      <c r="H36" s="6"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="11">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="6" t="s">
-        <v>276</v>
+        <v>44</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
@@ -3294,35 +3322,39 @@
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
     </row>
-    <row r="37" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="6">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="C37" s="7">
-        <v>43935</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+        <v>44068</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="15">
+        <v>44439</v>
+      </c>
       <c r="F37" s="7">
-        <v>43956</v>
+        <v>44467</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
       </c>
-      <c r="H37" s="6"/>
+      <c r="H37" s="27"/>
       <c r="I37" s="11">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>399</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="6" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
@@ -3339,35 +3371,35 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
     </row>
-    <row r="38" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B38" s="6">
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="C38" s="7">
-        <v>44544</v>
+        <v>44245</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="7">
-        <v>44607</v>
+        <v>44476</v>
       </c>
       <c r="G38" s="6">
         <v>0</v>
       </c>
-      <c r="H38" s="6"/>
+      <c r="H38" s="27"/>
       <c r="I38" s="11">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>231</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="6" t="s">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
@@ -3384,37 +3416,35 @@
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
     </row>
-    <row r="39" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="6">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>329</v>
       </c>
       <c r="C39" s="7">
-        <v>44103</v>
-      </c>
-      <c r="D39" s="15">
-        <v>44222</v>
-      </c>
+        <v>44369</v>
+      </c>
+      <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="7">
-        <v>44264</v>
+        <v>44481</v>
       </c>
       <c r="G39" s="6">
         <v>0</v>
       </c>
-      <c r="H39" s="6"/>
+      <c r="H39" s="27"/>
       <c r="I39" s="11">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="6" t="s">
-        <v>285</v>
+        <v>179</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>286</v>
+        <v>180</v>
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
@@ -3431,37 +3461,37 @@
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
     </row>
-    <row r="40" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="6">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="C40" s="7">
-        <v>43882</v>
+        <v>44252</v>
       </c>
       <c r="D40" s="15">
-        <v>43980</v>
+        <v>44441</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="7">
-        <v>44001</v>
+        <v>44497</v>
       </c>
       <c r="G40" s="6">
         <v>0</v>
       </c>
-      <c r="H40" s="6"/>
+      <c r="H40" s="27"/>
       <c r="I40" s="11">
         <f t="shared" si="1"/>
-        <v>119</v>
+        <v>245</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="6" t="s">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
@@ -3478,35 +3508,35 @@
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
     </row>
-    <row r="41" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="B41" s="6">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="C41" s="7">
-        <v>43896</v>
+        <v>44491</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="7">
-        <v>43987</v>
+        <v>44519</v>
       </c>
       <c r="G41" s="6">
         <v>0</v>
       </c>
-      <c r="H41" s="6"/>
+      <c r="H41" s="27"/>
       <c r="I41" s="11">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="6" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
@@ -3523,35 +3553,35 @@
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
     </row>
-    <row r="42" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="6">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="C42" s="7">
-        <v>43970</v>
+        <v>44495</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="7">
-        <v>44012</v>
+        <v>44532</v>
       </c>
       <c r="G42" s="6">
         <v>0</v>
       </c>
-      <c r="H42" s="6"/>
+      <c r="H42" s="27"/>
       <c r="I42" s="11">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="6" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
@@ -3568,35 +3598,37 @@
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
     </row>
-    <row r="43" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="6">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>329</v>
       </c>
       <c r="C43" s="7">
-        <v>43956</v>
-      </c>
-      <c r="D43" s="14"/>
+        <v>44420</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>212</v>
+      </c>
       <c r="E43" s="14"/>
       <c r="F43" s="7">
-        <v>44013</v>
+        <v>44534</v>
       </c>
       <c r="G43" s="6">
         <v>0</v>
       </c>
-      <c r="H43" s="6"/>
+      <c r="H43" s="27"/>
       <c r="I43" s="11">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="6" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -3613,35 +3645,35 @@
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
     </row>
-    <row r="44" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="6">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="C44" s="7">
-        <v>44572</v>
+        <v>44523</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="7">
-        <v>44651</v>
+        <v>44537</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
       </c>
-      <c r="H44" s="6"/>
+      <c r="H44" s="27"/>
       <c r="I44" s="11">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="6" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
@@ -3660,38 +3692,38 @@
     </row>
     <row r="45" spans="1:26" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" s="17">
-        <v>0</v>
-      </c>
-      <c r="C45" s="21">
-        <v>43799</v>
+        <v>333</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C45" s="18">
+        <v>44537</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
       <c r="F45" s="18">
-        <v>43910</v>
+        <v>44547</v>
       </c>
       <c r="G45" s="17">
         <v>1</v>
       </c>
-      <c r="H45" s="18">
-        <v>44376</v>
+      <c r="H45" s="28">
+        <v>44603</v>
       </c>
       <c r="I45" s="11">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="J45" s="11">
         <f>H:H-C:C</f>
-        <v>577</v>
+        <v>66</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="L45" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
@@ -3708,93 +3740,90 @@
       <c r="Y45" s="17"/>
       <c r="Z45" s="17"/>
     </row>
-    <row r="46" spans="1:26" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C46" s="18">
-        <v>44047</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>170</v>
+    <row r="46" spans="1:26" s="19" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C46" s="21">
+        <v>43889</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="E46" s="10">
         <v>2022</v>
       </c>
-      <c r="F46" s="18">
-        <v>44047</v>
-      </c>
-      <c r="G46" s="17">
-        <v>1</v>
-      </c>
-      <c r="H46" s="17">
-        <v>2022</v>
-      </c>
+      <c r="F46" s="7">
+        <v>44581</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0</v>
+      </c>
+      <c r="H46" s="27"/>
       <c r="I46" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="K46" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="L46" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17"/>
-      <c r="W46" s="17"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="17"/>
-      <c r="Z46" s="17"/>
-    </row>
-    <row r="47" spans="1:26" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>692</v>
+      </c>
+      <c r="J46" s="11"/>
+      <c r="K46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+    </row>
+    <row r="47" spans="1:26" s="19" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47" s="17">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="C47" s="18">
-        <v>43893</v>
-      </c>
-      <c r="D47" s="17"/>
+        <v>44469</v>
+      </c>
+      <c r="D47" s="10">
+        <v>2022</v>
+      </c>
       <c r="E47" s="17"/>
       <c r="F47" s="18">
-        <v>43931</v>
+        <v>44593</v>
       </c>
       <c r="G47" s="17">
         <v>1</v>
       </c>
-      <c r="H47" s="18">
-        <v>44546</v>
+      <c r="H47" s="28">
+        <v>2022</v>
       </c>
       <c r="I47" s="11">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="J47" s="11">
-        <f>H:H-C:C</f>
-        <v>653</v>
+        <v>124</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>306</v>
       </c>
       <c r="K47" s="17" t="s">
         <v>50</v>
       </c>
       <c r="L47" s="17" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
@@ -3811,1353 +3840,1121 @@
       <c r="Y47" s="17"/>
       <c r="Z47" s="17"/>
     </row>
-    <row r="48" spans="1:26" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B48" s="17">
-        <v>1</v>
-      </c>
-      <c r="C48" s="18">
-        <v>44008</v>
-      </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="18">
-        <v>44029</v>
-      </c>
-      <c r="G48" s="17">
-        <v>1</v>
-      </c>
-      <c r="H48" s="18">
-        <v>44428</v>
-      </c>
+    <row r="48" spans="1:26" s="19" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C48" s="7">
+        <v>44544</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="7">
+        <v>44607</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0</v>
+      </c>
+      <c r="H48" s="27"/>
       <c r="I48" s="11">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="J48" s="11">
-        <f>H:H-C:C</f>
-        <v>420</v>
-      </c>
-      <c r="K48" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="L48" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="17"/>
-    </row>
-    <row r="49" spans="1:26" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" s="17">
+        <v>63</v>
+      </c>
+      <c r="J48" s="11"/>
+      <c r="K48" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+    </row>
+    <row r="49" spans="1:26" s="19" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C49" s="7">
+        <v>44539</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="7">
+        <v>44614</v>
+      </c>
+      <c r="G49" s="6">
         <v>0</v>
       </c>
-      <c r="C49" s="18">
-        <v>44537</v>
-      </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="18">
-        <v>44547</v>
-      </c>
-      <c r="G49" s="17">
-        <v>1</v>
-      </c>
-      <c r="H49" s="18">
-        <v>44603</v>
-      </c>
+      <c r="H49" s="27"/>
       <c r="I49" s="11">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J49" s="11">
-        <f>H:H-C:C</f>
-        <v>66</v>
-      </c>
-      <c r="K49" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="L49" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17"/>
-      <c r="W49" s="17"/>
-      <c r="X49" s="17"/>
-      <c r="Y49" s="17"/>
-      <c r="Z49" s="17"/>
-    </row>
-    <row r="50" spans="1:26" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="17">
-        <v>1</v>
-      </c>
-      <c r="C50" s="18">
-        <v>43937</v>
-      </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="18">
-        <v>44042</v>
-      </c>
-      <c r="G50" s="17">
-        <v>1</v>
-      </c>
-      <c r="H50" s="18">
-        <v>44252</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J49" s="11"/>
+      <c r="K49" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+    </row>
+    <row r="50" spans="1:26" s="19" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C50" s="7">
+        <v>44582</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="7">
+        <v>44617</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0</v>
+      </c>
+      <c r="H50" s="27"/>
       <c r="I50" s="11">
         <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="J50" s="11">
-        <f>H:H-C:C</f>
-        <v>315</v>
-      </c>
-      <c r="K50" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="L50" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" s="11"/>
+      <c r="K50" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="L50" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="17"/>
-      <c r="Z50" s="17"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
     </row>
     <row r="51" spans="1:26" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="17">
-        <v>1</v>
-      </c>
-      <c r="C51" s="18">
-        <v>44469</v>
-      </c>
-      <c r="D51" s="10">
-        <v>2022</v>
-      </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="18">
-        <v>44593</v>
-      </c>
-      <c r="G51" s="17">
-        <v>1</v>
-      </c>
-      <c r="H51" s="17">
-        <v>2022</v>
-      </c>
+      <c r="A51" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C51" s="7">
+        <v>44511</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="7">
+        <v>44635</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0</v>
+      </c>
+      <c r="H51" s="27"/>
       <c r="I51" s="11">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="J51" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="K51" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L51" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17"/>
-    </row>
-    <row r="52" spans="1:26" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="17" t="s">
-        <v>140</v>
+      <c r="J51" s="11"/>
+      <c r="K51" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+    </row>
+    <row r="52" spans="1:26" s="19" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C52" s="18">
-        <v>43966</v>
-      </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="18">
-        <v>44078</v>
-      </c>
-      <c r="G52" s="17">
-        <v>1</v>
-      </c>
-      <c r="H52" s="18">
-        <v>44273</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="C52" s="20">
+        <v>44500</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="7">
+        <v>44645</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0</v>
+      </c>
+      <c r="H52" s="27"/>
       <c r="I52" s="11">
         <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="J52" s="11">
-        <f>H:H-C:C</f>
-        <v>307</v>
-      </c>
-      <c r="K52" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L52" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="17"/>
-      <c r="Z52" s="17"/>
-    </row>
-    <row r="53" spans="1:26" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" s="17">
-        <v>1</v>
-      </c>
-      <c r="C53" s="18">
-        <v>43963</v>
-      </c>
-      <c r="D53" s="18">
-        <v>43977</v>
-      </c>
-      <c r="E53" s="17"/>
-      <c r="F53" s="18">
-        <v>44005</v>
-      </c>
-      <c r="G53" s="17">
-        <v>1</v>
-      </c>
-      <c r="H53" s="18">
-        <v>44131</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="J52" s="11"/>
+      <c r="K52" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+    </row>
+    <row r="53" spans="1:26" s="19" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C53" s="7">
+        <v>44572</v>
+      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="7">
+        <v>44651</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0</v>
+      </c>
+      <c r="H53" s="27"/>
       <c r="I53" s="11">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="J53" s="11">
-        <f>H:H-C:C</f>
-        <v>168</v>
-      </c>
-      <c r="K53" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="L53" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="17"/>
-    </row>
-    <row r="54" spans="1:26" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="17">
-        <v>1</v>
-      </c>
-      <c r="C54" s="18">
-        <v>44540</v>
-      </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="18">
-        <v>44224</v>
-      </c>
-      <c r="G54" s="17">
-        <v>1</v>
-      </c>
-      <c r="H54" s="18">
-        <v>44612</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="J53" s="11"/>
+      <c r="K53" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+    </row>
+    <row r="54" spans="1:26" s="19" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C54" s="7">
+        <v>44124</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="10">
+        <v>2022</v>
+      </c>
+      <c r="F54" s="7">
+        <v>44656</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+      <c r="H54" s="27"/>
       <c r="I54" s="11">
-        <v>49</v>
-      </c>
-      <c r="J54" s="11">
-        <f>H:H-C:C</f>
-        <v>72</v>
-      </c>
-      <c r="K54" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="L54" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="17"/>
-    </row>
-    <row r="55" spans="1:26" s="19" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="B55" s="17">
+        <f t="shared" si="1"/>
+        <v>532</v>
+      </c>
+      <c r="J54" s="11"/>
+      <c r="K54" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+    </row>
+    <row r="55" spans="1:26" s="19" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C55" s="7">
+        <v>44617</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="7">
+        <v>44796</v>
+      </c>
+      <c r="G55" s="6">
         <v>0</v>
       </c>
-      <c r="C55" s="18">
-        <v>43896</v>
-      </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="18">
-        <v>44133</v>
-      </c>
-      <c r="G55" s="17">
-        <v>1</v>
-      </c>
-      <c r="H55" s="18">
-        <v>44147</v>
-      </c>
+      <c r="H55" s="27"/>
       <c r="I55" s="11">
-        <f>F:F-C:C</f>
-        <v>237</v>
-      </c>
-      <c r="J55" s="11">
-        <f>H:H-C:C</f>
-        <v>251</v>
-      </c>
-      <c r="K55" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L55" s="17" t="s">
+        <f t="shared" si="1"/>
+        <v>179</v>
+      </c>
+      <c r="J55" s="11"/>
+      <c r="K55" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="L55" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="17"/>
-      <c r="Z55" s="17"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z55" xr:uid="{440208A2-4103-7144-828F-EB30C451AE8E}"/>
+  <autoFilter ref="A1:Z55" xr:uid="{440208A2-4103-7144-828F-EB30C451AE8E}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Death Stranding (PC)"/>
+        <filter val="Grand Theft Auto 5 (Next-Gen)"/>
+        <filter val="GTA: The Trilogy – The Definitive Edition (Physical Release)"/>
+        <filter val="Sniper Ghost Warrior Contracts 2 (PS5)"/>
+        <filter val="The Outer Worlds (NS)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1160FA0-FAAF-8840-90E7-BD8FDC9A4BEA}">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="17.6640625" style="2"/>
-    <col min="11" max="11" width="11.6640625" style="27" customWidth="1"/>
-    <col min="12" max="13" width="11.6640625" customWidth="1"/>
-    <col min="14" max="18" width="17.6640625" style="2"/>
-    <col min="20" max="26" width="25" customWidth="1"/>
-    <col min="27" max="16384" width="17.6640625" style="2"/>
+    <col min="1" max="10" width="17.6640625" style="23"/>
+    <col min="11" max="11" width="17.6640625" style="30"/>
+    <col min="12" max="12" width="17.6640625" style="23"/>
+    <col min="13" max="13" width="17.6640625" style="30"/>
+    <col min="14" max="15" width="17.6640625" style="23"/>
+    <col min="16" max="22" width="25" style="30" customWidth="1"/>
+    <col min="23" max="16384" width="17.6640625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:22" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23">
+        <v>-603.38021900000001</v>
+      </c>
+      <c r="B2" s="23">
+        <v>40</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>-257.080219</v>
-      </c>
-      <c r="C2" s="2">
-        <v>35.317366</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="E2" s="31">
         <v>45.642000000000003</v>
       </c>
-      <c r="F2" s="2">
-        <v>9981580000</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F2" s="23">
+        <v>1</v>
+      </c>
+      <c r="G2" s="31">
+        <v>46.01</v>
+      </c>
+      <c r="H2" s="31">
+        <v>9.9815799999999992</v>
+      </c>
+      <c r="I2" s="31">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H2" s="2">
+      <c r="J2" s="31">
         <v>2.69</v>
       </c>
-      <c r="J2" s="23">
+      <c r="K2" s="31">
         <v>932</v>
       </c>
-      <c r="K2" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="L2" s="2">
-        <v>-257.080219</v>
-      </c>
-      <c r="M2" s="2">
-        <v>35.317366</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="R2" s="2">
+      <c r="L2" s="31">
+        <v>685.48</v>
+      </c>
+      <c r="M2" s="31">
+        <v>2.81</v>
+      </c>
+      <c r="N2" s="31">
         <v>77.400000000000006</v>
       </c>
-      <c r="S2" s="2">
+      <c r="O2" s="31"/>
+      <c r="P2" s="23">
+        <v>93.6</v>
+      </c>
+      <c r="Q2" s="23">
+        <v>85.6</v>
+      </c>
+      <c r="R2" s="23">
+        <v>87</v>
+      </c>
+      <c r="S2" s="23">
+        <v>83.2</v>
+      </c>
+      <c r="T2" s="23">
+        <v>91.6</v>
+      </c>
+      <c r="U2" s="23">
+        <v>84</v>
+      </c>
+      <c r="V2" s="23">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23">
+        <v>-797.08500000000004</v>
+      </c>
+      <c r="B3" s="23">
+        <v>38.840000000000003</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3" s="23">
+        <v>2</v>
+      </c>
+      <c r="E3" s="31">
+        <v>39.064999999999998</v>
+      </c>
+      <c r="F3" s="23">
+        <v>2</v>
+      </c>
+      <c r="G3" s="31">
+        <v>40.54</v>
+      </c>
+      <c r="H3" s="31">
+        <v>1.000329</v>
+      </c>
+      <c r="I3" s="31">
+        <v>17</v>
+      </c>
+      <c r="J3" s="31">
+        <v>2.69</v>
+      </c>
+      <c r="K3" s="31">
+        <v>932</v>
+      </c>
+      <c r="L3" s="31">
+        <v>191.12</v>
+      </c>
+      <c r="M3" s="31">
         <v>2.81</v>
       </c>
-      <c r="T2" s="2">
-        <v>93.6</v>
-      </c>
-      <c r="U2" s="23">
-        <v>85.6</v>
-      </c>
-      <c r="V2" s="23">
-        <v>87</v>
-      </c>
-      <c r="W2" s="23">
-        <v>83.2</v>
-      </c>
-      <c r="X2" s="23">
-        <v>91.6</v>
-      </c>
-      <c r="Y2" s="23">
-        <v>84</v>
-      </c>
-      <c r="Z2" s="23">
-        <v>89.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>-459.61247300000002</v>
-      </c>
-      <c r="C3" s="2">
-        <v>39.909736000000002</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E3" s="2">
-        <v>39.064999999999998</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1000329000</v>
-      </c>
-      <c r="G3" s="2">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="N3" s="31">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="O3" s="31">
+        <v>6.76</v>
+      </c>
+      <c r="P3" s="23">
+        <v>85.2</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="R3" s="23">
+        <v>57.8</v>
+      </c>
+      <c r="S3" s="23">
+        <v>56.2</v>
+      </c>
+      <c r="T3" s="23">
+        <v>46.4</v>
+      </c>
+      <c r="U3" s="23">
+        <v>49.2</v>
+      </c>
+      <c r="V3" s="23">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23">
+        <v>-580.37854400000003</v>
+      </c>
+      <c r="B4" s="23">
+        <v>35.906635999999999</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="23">
+        <v>3</v>
+      </c>
+      <c r="E4" s="31">
+        <v>20.763000000000002</v>
+      </c>
+      <c r="F4" s="23">
+        <v>3</v>
+      </c>
+      <c r="G4" s="31">
+        <v>22.09</v>
+      </c>
+      <c r="H4" s="31">
+        <v>2.7186149999999998</v>
+      </c>
+      <c r="I4" s="31">
+        <v>28.1</v>
+      </c>
+      <c r="J4" s="31">
         <v>2.69</v>
       </c>
-      <c r="I3" s="2">
-        <v>6.76</v>
-      </c>
-      <c r="J3" s="23">
+      <c r="K4" s="31">
         <v>932</v>
       </c>
-      <c r="K3" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="L3" s="2">
-        <v>-459.61247300000002</v>
-      </c>
-      <c r="M3" s="2">
-        <v>39.909736000000002</v>
-      </c>
-      <c r="N3" s="2">
-        <v>2</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="R3" s="2">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="S3" s="2">
+      <c r="L4" s="31">
+        <v>75.62</v>
+      </c>
+      <c r="M4" s="31">
         <v>2.81</v>
       </c>
-      <c r="T3" s="23">
-        <v>85.2</v>
-      </c>
-      <c r="U3" s="23">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="V3" s="23">
-        <v>57.8</v>
-      </c>
-      <c r="W3" s="23">
-        <v>56.2</v>
-      </c>
-      <c r="X3" s="23">
-        <v>46.4</v>
-      </c>
-      <c r="Y3" s="23">
-        <v>49.2</v>
-      </c>
-      <c r="Z3" s="23">
-        <v>46.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>-580.88854400000002</v>
-      </c>
-      <c r="C4" s="2">
-        <v>36.456636000000003</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E4" s="2">
-        <v>20.763000000000002</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2718615000</v>
-      </c>
-      <c r="G4" s="2">
-        <v>28.1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2.69</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="N4" s="31">
+        <v>71.7</v>
+      </c>
+      <c r="O4" s="31">
         <v>6.64</v>
       </c>
-      <c r="J4" s="23">
-        <v>932</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="L4" s="2">
-        <v>-580.88854400000002</v>
-      </c>
-      <c r="M4" s="2">
-        <v>36.456636000000003</v>
-      </c>
-      <c r="N4" s="2">
-        <v>3</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="R4" s="2">
-        <v>71.7</v>
-      </c>
-      <c r="S4" s="2">
-        <v>2.81</v>
-      </c>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
       <c r="T4" s="23"/>
       <c r="U4" s="23"/>
       <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-    </row>
-    <row r="5" spans="1:26" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    </row>
+    <row r="5" spans="1:22" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23">
+        <v>-593.32513100000006</v>
+      </c>
+      <c r="B5" s="23">
+        <v>37.636636000000003</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" s="23">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>-591.94513099999995</v>
-      </c>
-      <c r="C5" s="2">
-        <v>36.456636000000003</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="E5" s="31">
         <v>7.53</v>
       </c>
-      <c r="F5" s="2">
-        <v>2346000</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="23">
+        <v>4</v>
+      </c>
+      <c r="G5" s="31">
+        <v>7.55</v>
+      </c>
+      <c r="H5" s="31">
+        <v>2.346E-3</v>
+      </c>
+      <c r="I5" s="31">
         <v>-11</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="31">
         <v>2.69</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="31">
+        <v>932</v>
+      </c>
+      <c r="L5" s="31">
+        <v>33.01</v>
+      </c>
+      <c r="M5" s="31">
+        <v>2.81</v>
+      </c>
+      <c r="N5" s="31">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="O5" s="31">
         <v>5.04</v>
       </c>
-      <c r="J5" s="23">
+      <c r="P5" s="23">
+        <v>79.2</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>72.8</v>
+      </c>
+      <c r="R5" s="23">
+        <v>73.2</v>
+      </c>
+      <c r="S5" s="23">
+        <v>70.8</v>
+      </c>
+      <c r="T5" s="23">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="U5" s="23">
+        <v>63</v>
+      </c>
+      <c r="V5" s="23">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23">
+        <v>-706.49925599999995</v>
+      </c>
+      <c r="B6" s="23">
+        <v>52.446016999999998</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="23">
+        <v>5</v>
+      </c>
+      <c r="E6" s="31">
+        <v>5.702</v>
+      </c>
+      <c r="F6" s="23">
+        <v>5</v>
+      </c>
+      <c r="G6" s="31">
+        <v>5.87</v>
+      </c>
+      <c r="H6" s="31">
+        <v>1.3792180000000001</v>
+      </c>
+      <c r="I6" s="31">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J6" s="31">
+        <v>2.69</v>
+      </c>
+      <c r="K6" s="31">
         <v>932</v>
       </c>
-      <c r="K5" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="L5" s="2">
-        <v>-591.94513099999995</v>
-      </c>
-      <c r="M5" s="2">
-        <v>36.456636000000003</v>
-      </c>
-      <c r="N5" s="2">
-        <v>4</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="R5" s="2">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="S5" s="2">
+      <c r="L6" s="31">
+        <v>46.12</v>
+      </c>
+      <c r="M6" s="31">
         <v>2.81</v>
       </c>
-      <c r="T5" s="23">
-        <v>79.2</v>
-      </c>
-      <c r="U5" s="23">
-        <v>72.8</v>
-      </c>
-      <c r="V5" s="23">
-        <v>73.2</v>
-      </c>
-      <c r="W5" s="23">
-        <v>70.8</v>
-      </c>
-      <c r="X5" s="23">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="Y5" s="23">
-        <v>63</v>
-      </c>
-      <c r="Z5" s="23">
-        <v>63.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-710.08725600000002</v>
-      </c>
-      <c r="C6" s="2">
-        <v>51.069017000000002</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5.702</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1379218000</v>
-      </c>
-      <c r="G6" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="N6" s="31">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="O6" s="31">
+        <v>6.92</v>
+      </c>
+      <c r="P6" s="23">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>57.6</v>
+      </c>
+      <c r="R6" s="23">
+        <v>62.8</v>
+      </c>
+      <c r="S6" s="23">
+        <v>56.4</v>
+      </c>
+      <c r="T6" s="23">
+        <v>51.4</v>
+      </c>
+      <c r="U6" s="23">
+        <v>51.2</v>
+      </c>
+      <c r="V6" s="23">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <v>-719.98901499999999</v>
+      </c>
+      <c r="B7" s="23">
+        <v>51.484873</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" s="23">
+        <v>6</v>
+      </c>
+      <c r="E7" s="31">
+        <v>5.117</v>
+      </c>
+      <c r="F7" s="23">
+        <v>6</v>
+      </c>
+      <c r="G7" s="31">
+        <v>5.31</v>
+      </c>
+      <c r="H7" s="31">
+        <v>0.32858300000000001</v>
+      </c>
+      <c r="I7" s="31">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="J7" s="31">
         <v>2.69</v>
       </c>
-      <c r="I6" s="2">
-        <v>6.92</v>
-      </c>
-      <c r="J6" s="23">
+      <c r="K7" s="31">
         <v>932</v>
       </c>
-      <c r="K6" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="L6" s="2">
-        <v>-710.08725600000002</v>
-      </c>
-      <c r="M6" s="2">
-        <v>51.069017000000002</v>
-      </c>
-      <c r="N6" s="2">
-        <v>5</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="R6" s="2">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="S6" s="2">
+      <c r="L7" s="31">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="M7" s="31">
         <v>2.81</v>
       </c>
-      <c r="T6" s="23">
-        <v>83</v>
-      </c>
-      <c r="U6" s="23">
-        <v>57.6</v>
-      </c>
-      <c r="V6" s="23">
-        <v>62.8</v>
-      </c>
-      <c r="W6" s="23">
-        <v>56.4</v>
-      </c>
-      <c r="X6" s="23">
-        <v>51.4</v>
-      </c>
-      <c r="Y6" s="23">
-        <v>51.2</v>
-      </c>
-      <c r="Z6" s="23">
-        <v>53.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>-722.37501499999996</v>
-      </c>
-      <c r="C7" s="2">
-        <v>53.330872999999997</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5.117</v>
-      </c>
-      <c r="F7" s="2">
-        <v>328583000</v>
-      </c>
-      <c r="G7" s="2">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="N7" s="31">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="O7" s="31">
+        <v>6.89</v>
+      </c>
+      <c r="P7" s="23">
+        <v>88.4</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>62.4</v>
+      </c>
+      <c r="R7" s="23">
+        <v>61.6</v>
+      </c>
+      <c r="S7" s="23">
+        <v>52.8</v>
+      </c>
+      <c r="T7" s="23">
+        <v>46.6</v>
+      </c>
+      <c r="U7" s="23">
+        <v>46.8</v>
+      </c>
+      <c r="V7" s="23">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
+        <v>-717.73038499999996</v>
+      </c>
+      <c r="B8" s="23">
+        <v>48.889856999999999</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="23">
+        <v>7</v>
+      </c>
+      <c r="E8" s="31">
+        <v>4.024</v>
+      </c>
+      <c r="F8" s="23">
+        <v>7</v>
+      </c>
+      <c r="G8" s="31">
+        <v>4.13</v>
+      </c>
+      <c r="H8" s="32">
+        <v>0.142592</v>
+      </c>
+      <c r="I8" s="31">
+        <v>8.1</v>
+      </c>
+      <c r="J8" s="31">
         <v>2.69</v>
       </c>
-      <c r="I7" s="2">
-        <v>6.89</v>
-      </c>
-      <c r="J7" s="23">
+      <c r="K8" s="31">
         <v>932</v>
       </c>
-      <c r="K7" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="L7" s="2">
-        <v>-722.37501499999996</v>
-      </c>
-      <c r="M7" s="2">
-        <v>53.330872999999997</v>
-      </c>
-      <c r="N7" s="2">
-        <v>6</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="R7" s="2">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="S7" s="2">
+      <c r="L8" s="31">
+        <v>38.08</v>
+      </c>
+      <c r="M8" s="31">
         <v>2.81</v>
       </c>
-      <c r="T7" s="23">
-        <v>88.4</v>
-      </c>
-      <c r="U7" s="23">
-        <v>62.4</v>
-      </c>
-      <c r="V7" s="23">
-        <v>61.6</v>
-      </c>
-      <c r="W7" s="23">
-        <v>52.8</v>
-      </c>
-      <c r="X7" s="23">
-        <v>46.6</v>
-      </c>
-      <c r="Y7" s="23">
-        <v>46.8</v>
-      </c>
-      <c r="Z7" s="23">
-        <v>49.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>-717.45038499999998</v>
-      </c>
-      <c r="C8" s="2">
-        <v>46.437857000000001</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4.024</v>
-      </c>
-      <c r="F8" s="2">
-        <v>142592000</v>
-      </c>
-      <c r="G8" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2.69</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="N8" s="31">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="O8" s="31">
         <v>6.22</v>
       </c>
-      <c r="J8" s="23">
-        <v>932</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="L8" s="2">
-        <v>-717.45038499999998</v>
-      </c>
-      <c r="M8" s="2">
-        <v>46.437857000000001</v>
-      </c>
-      <c r="N8" s="2">
-        <v>7</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="R8" s="2">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="S8" s="2">
-        <v>2.81</v>
-      </c>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
       <c r="T8" s="23"/>
       <c r="U8" s="23"/>
       <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-    </row>
-    <row r="9" spans="1:26" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    </row>
+    <row r="9" spans="1:22" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
+        <v>-795.78499999999997</v>
+      </c>
+      <c r="B9" s="23">
+        <v>45.44</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" s="23">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>-824.16746000000001</v>
-      </c>
-      <c r="C9" s="2">
-        <v>53.540306999999999</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="E9" s="31">
         <v>3.5510000000000002</v>
       </c>
-      <c r="F9" s="2">
-        <v>105300000</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="23">
+        <v>8</v>
+      </c>
+      <c r="G9" s="31">
+        <v>3.69</v>
+      </c>
+      <c r="H9" s="32">
+        <v>0.1053</v>
+      </c>
+      <c r="I9" s="31">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="H9" s="2">
+      <c r="J9" s="31">
         <v>2.69</v>
       </c>
-      <c r="J9" s="23">
+      <c r="K9" s="31">
         <v>932</v>
       </c>
-      <c r="K9" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="L9" s="2">
-        <v>-824.16746000000001</v>
-      </c>
-      <c r="M9" s="2">
-        <v>53.540306999999999</v>
-      </c>
-      <c r="N9" s="2">
-        <v>8</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="R9" s="2">
+      <c r="L9" s="31">
+        <v>20.98</v>
+      </c>
+      <c r="M9" s="31">
+        <v>2.81</v>
+      </c>
+      <c r="N9" s="31">
         <v>79.599999999999994</v>
       </c>
-      <c r="S9" s="2">
-        <v>2.81</v>
-      </c>
+      <c r="O9" s="31"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
       <c r="T9" s="23"/>
       <c r="U9" s="23"/>
       <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-    </row>
-    <row r="10" spans="1:26" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    </row>
+    <row r="10" spans="1:22" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
+        <v>-707.512969</v>
+      </c>
+      <c r="B10" s="23">
+        <v>42.008088000000001</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" s="23">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>-707.41296899999998</v>
-      </c>
-      <c r="C10" s="2">
-        <v>43.068888000000001</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="E10" s="31">
         <v>3.2050000000000001</v>
       </c>
-      <c r="F10" s="2">
-        <v>66339000</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="23">
+        <v>9</v>
+      </c>
+      <c r="G10" s="31">
+        <v>3.29</v>
+      </c>
+      <c r="H10" s="32">
+        <v>6.6338999999999995E-2</v>
+      </c>
+      <c r="I10" s="31">
         <v>94</v>
       </c>
-      <c r="H10" s="2">
+      <c r="J10" s="31">
         <v>2.69</v>
       </c>
-      <c r="I10" s="2">
+      <c r="K10" s="31">
+        <v>932</v>
+      </c>
+      <c r="L10" s="31">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="M10" s="31">
+        <v>2.81</v>
+      </c>
+      <c r="N10" s="31">
+        <v>81.8</v>
+      </c>
+      <c r="O10" s="31">
         <v>6.26</v>
       </c>
-      <c r="J10" s="23">
-        <v>932</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="L10" s="2">
-        <v>-707.41296899999998</v>
-      </c>
-      <c r="M10" s="2">
-        <v>43.068888000000001</v>
-      </c>
-      <c r="N10" s="2">
-        <v>9</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="R10" s="2">
-        <v>81.8</v>
-      </c>
-      <c r="S10" s="2">
-        <v>2.81</v>
-      </c>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
       <c r="T10" s="23"/>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-    </row>
-    <row r="11" spans="1:26" s="28" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+    </row>
+    <row r="11" spans="1:22" s="25" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25">
+        <v>-767.97139500000003</v>
+      </c>
+      <c r="B11" s="25">
+        <v>-15.695273</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="25">
         <v>10</v>
       </c>
-      <c r="B11" s="28">
-        <v>-770.37139500000001</v>
-      </c>
-      <c r="C11" s="28">
-        <v>-11.695273</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="E11" s="28">
+      <c r="E11" s="33">
         <v>2.2879999999999998</v>
       </c>
-      <c r="F11" s="28">
-        <v>1139000</v>
-      </c>
-      <c r="G11" s="28">
+      <c r="G11" s="33"/>
+      <c r="H11" s="33">
+        <v>1.139E-3</v>
+      </c>
+      <c r="I11" s="33">
         <v>434.7</v>
       </c>
-      <c r="H11" s="28">
+      <c r="J11" s="33">
         <v>2.69</v>
       </c>
-      <c r="J11" s="29">
+      <c r="K11" s="33">
         <v>932</v>
       </c>
-      <c r="K11" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="L11" s="28">
-        <v>-723.251981</v>
-      </c>
-      <c r="M11" s="28">
-        <v>39.774768999999999</v>
-      </c>
-      <c r="N11" s="28">
+      <c r="L11" s="33"/>
+      <c r="M11" s="33">
+        <v>2.81</v>
+      </c>
+      <c r="N11" s="33">
+        <v>89.3</v>
+      </c>
+      <c r="O11" s="33"/>
+    </row>
+    <row r="12" spans="1:22" s="25" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25">
+        <v>-723.70198100000005</v>
+      </c>
+      <c r="B12" s="25">
+        <v>40.364769000000003</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="25">
         <v>10</v>
       </c>
-      <c r="O11" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="P11" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q11" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="R11" s="28">
+      <c r="G12" s="33">
+        <v>2.33</v>
+      </c>
+      <c r="H12" s="33">
+        <v>0.85246100000000002</v>
+      </c>
+      <c r="I12" s="33">
+        <v>8.6</v>
+      </c>
+      <c r="J12" s="33">
+        <v>2.69</v>
+      </c>
+      <c r="K12" s="33">
+        <v>932</v>
+      </c>
+      <c r="L12" s="33">
+        <v>29.73</v>
+      </c>
+      <c r="M12" s="33">
+        <v>2.81</v>
+      </c>
+      <c r="N12" s="33">
         <v>80.8</v>
       </c>
-      <c r="S11" s="28">
-        <v>2.81</v>
-      </c>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-    </row>
-    <row r="12" spans="1:26" s="28" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="28">
-        <v>-723.251981</v>
-      </c>
-      <c r="C12" s="28">
-        <v>39.774768999999999</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="F12" s="28">
-        <v>852461000</v>
-      </c>
-      <c r="G12" s="28">
-        <v>8.6</v>
-      </c>
-      <c r="H12" s="28">
-        <v>2.69</v>
-      </c>
-      <c r="J12" s="29">
-        <v>932</v>
-      </c>
-      <c r="K12" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="L12" s="28">
-        <v>-770.37139500000001</v>
-      </c>
-      <c r="M12" s="28">
-        <v>-11.695273</v>
-      </c>
-      <c r="O12" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="R12" s="28">
-        <v>89.3</v>
-      </c>
-      <c r="S12" s="28">
-        <v>2.81</v>
-      </c>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-    </row>
-    <row r="13" spans="1:26" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J13" s="2"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:26" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F14" s="24"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:26" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J15" s="2"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J16" s="2"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="11:11" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="11:11" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K18" s="26"/>
-    </row>
-    <row r="19" spans="11:11" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K19" s="26"/>
-    </row>
-    <row r="20" spans="11:11" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="11:11" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K21" s="26"/>
-    </row>
+      <c r="O12" s="33"/>
+    </row>
+    <row r="13" spans="1:22" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="1:22" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="24"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="1:22" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="1:22" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" s="23" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="23" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="23" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="23" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="23" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5167,8 +4964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC65B6FA-73B5-5744-9DAD-15943CA954C8}">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A110" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125:B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.5" defaultRowHeight="34" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33864,5 +33661,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>